--- a/biology/Zoologie/Calymnidae/Calymnidae.xlsx
+++ b/biology/Zoologie/Calymnidae/Calymnidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Calymnidae sont une famille d'oursins irréguliers de l'ordre des Holasteroida.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins très irréguliers, dont la forme a évolué de la sphère vers une forme allongée, rappelant celle d'un ballon de baudruche. Ces oursins sont structurés selon une symétrie bilatérale secondaire, avec la bouche à l'« avant » et l'anus à l'« arrière ». Les piquants (« radioles ») sont courts, fins et clairsemés.
 Leur test est fin et fragile.
@@ -519,8 +533,8 @@
 Le plastron est orthosterne.
 Le péristome est petit et circulaire, associé à un sillon peu profond.
 Ces oursins portent des fascioles marginales.
-Le périprocte est marginal à inframarginal[2].
-Cette famille est apparue au Crétacé (Campanien)[2].
+Le périprocte est marginal à inframarginal.
+Cette famille est apparue au Crétacé (Campanien).
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (6 juin 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (6 juin 2014) :
 genre Calymne Thomson, 1877
 genre Chelonechinus Bather, 1934 †
 genre Pseudoffaster Lambert, in Lambert &amp; Thiéry, 1924 †
@@ -583,7 +599,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Th. Mortensen, Echinoidea. Pt. I-II, Copenhague, Inconnu, 1907, 588 p. (OCLC 3971129, DOI 10.5962/BHL.TITLE.11718, lire en ligne)</t>
         </is>
